--- a/NformTester/NformTester/Keywordscripts/600.10.20.60_DataLoggingForDeviceDataPoints.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.60_DataLoggingForDeviceDataPoints.xlsx
@@ -3965,6 +3965,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -4396,7 +4464,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4676,7 +4744,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/Keywordscripts/600.10.20.60_DataLoggingForDeviceDataPoints.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.60_DataLoggingForDeviceDataPoints.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7142" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7144" uniqueCount="831">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3670,51 +3670,58 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Script Info</t>
+  </si>
+  <si>
+    <t>Script Data</t>
+  </si>
+  <si>
+    <t>Test Object</t>
+  </si>
+  <si>
+    <t>C:\\Nform\\bin\\NformViewer.exe</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Create Date</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Running Range</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
     <t>$SNMP_device_0$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Script Info</t>
-  </si>
-  <si>
-    <t>Script Data</t>
-  </si>
-  <si>
-    <t>Test Object</t>
-  </si>
-  <si>
-    <t>C:\\Nform\\bin\\NformViewer.exe</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Create Date</t>
-  </si>
-  <si>
-    <t>Update Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Running Range</t>
-  </si>
-  <si>
-    <t>Result</t>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -3882,7 +3889,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3893,8 +3900,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3942,10 +3952,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -3965,74 +3980,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -4464,7 +4411,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4744,7 +4691,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4760,10 +4707,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>749</v>
@@ -4805,10 +4752,10 @@
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4830,10 +4777,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4865,10 +4812,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -4896,7 +4843,7 @@
     </row>
     <row r="5" spans="1:15" ht="15">
       <c r="A5" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B5" s="7">
         <v>41743</v>
@@ -4921,10 +4868,10 @@
     </row>
     <row r="6" spans="1:15" ht="15">
       <c r="A6" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4971,7 +4918,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="4">
@@ -4991,10 +4938,10 @@
         <v>792</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>793</v>
@@ -5010,7 +4957,7 @@
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
@@ -5110,7 +5057,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -5419,6 +5366,12 @@
       <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:15" ht="15">
+      <c r="A23" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>830</v>
+      </c>
       <c r="C23" s="4">
         <v>22</v>
       </c>
